--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E52708C-D1A1-480A-9B91-9902B4E29DFD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC096D6-1501-415B-AF95-0E1F02198DEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Busqueda local 1 - Inst 1</t>
   </si>
@@ -252,6 +252,18 @@
   <si>
     <t>Tiempo ejecucion media</t>
   </si>
+  <si>
+    <t>Graficos</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
 </sst>
 </file>
 
@@ -343,6 +355,2774 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$249:$E$250</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>First</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Valor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-91EF-4745-8BE3-8CB23E0744D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$251:$D$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$251:$E$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>19.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91EF-4745-8BE3-8CB23E0744D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-91EF-4745-8BE3-8CB23E0744D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$251:$A$297</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85.63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>87.77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89.79</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91.67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>93.81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95.83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97.71</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101.87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>103.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>105.89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>107.91</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>110.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>112.07</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>114.21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$251:$B$297</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.324999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-91EF-4745-8BE3-8CB23E0744D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675044480"/>
+        <c:axId val="673318600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675044480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673318600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673318600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675044480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>First</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-50E3-4E32-B9C8-CA1DFC0D0F83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$251:$K$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$L$251:$L$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-50E3-4E32-B9C8-CA1DFC0D0F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-50E3-4E32-B9C8-CA1DFC0D0F83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$251:$H$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$251:$I$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>33.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-50E3-4E32-B9C8-CA1DFC0D0F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675044480"/>
+        <c:axId val="673318600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675044480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673318600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673318600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675044480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EBD157-ED32-4CF0-A13E-F823B893E771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083AFFBD-511B-4A45-A05F-7B7E2DAF6107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,10 +3388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q244"/>
+  <dimension ref="A1:Q297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="J245" sqref="J245"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L266" sqref="L266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,39 +4056,39 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>(A16+A17+A19+A20+A18+A21+A22+A23+A24+A25)/10</f>
+        <f t="shared" ref="A26:I26" si="0">(A16+A17+A19+A20+A18+A21+A22+A23+A24+A25)/10</f>
         <v>17.111000000000001</v>
       </c>
       <c r="B26">
-        <f>(B16+B17+B19+B20+B18+B21+B22+B23+B24+B25)/10</f>
+        <f t="shared" si="0"/>
         <v>14.569999999999999</v>
       </c>
       <c r="C26">
-        <f>(C16+C17+C19+C20+C18+C21+C22+C23+C24+C25)/10</f>
+        <f t="shared" si="0"/>
         <v>11.891999999999999</v>
       </c>
       <c r="D26">
-        <f>(D16+D17+D19+D20+D18+D21+D22+D23+D24+D25)/10</f>
+        <f t="shared" si="0"/>
         <v>16.942</v>
       </c>
       <c r="E26">
-        <f>(E16+E17+E19+E20+E18+E21+E22+E23+E24+E25)/10</f>
+        <f t="shared" si="0"/>
         <v>13.408000000000001</v>
       </c>
       <c r="F26">
-        <f>(F16+F17+F19+F20+F18+F21+F22+F23+F24+F25)/10</f>
+        <f t="shared" si="0"/>
         <v>13.509</v>
       </c>
       <c r="G26">
-        <f>(G16+G17+G19+G20+G18+G21+G22+G23+G24+G25)/10</f>
+        <f t="shared" si="0"/>
         <v>21.291999999999998</v>
       </c>
       <c r="H26">
-        <f>(H16+H17+H19+H20+H18+H21+H22+H23+H24+H25)/10</f>
+        <f t="shared" si="0"/>
         <v>17.006</v>
       </c>
       <c r="I26">
-        <f>(I16+I17+I19+I20+I18+I21+I22+I23+I24+I25)/10</f>
+        <f t="shared" si="0"/>
         <v>14.398</v>
       </c>
     </row>
@@ -1609,39 +4389,39 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>(A29+A30+A31+A32+A33+A34+A35+A36+A37+A38)/10</f>
+        <f t="shared" ref="A39:I39" si="1">(A29+A30+A31+A32+A33+A34+A35+A36+A37+A38)/10</f>
         <v>429.50499999999994</v>
       </c>
       <c r="B39">
-        <f>(B29+B30+B31+B32+B33+B34+B35+B36+B37+B38)/10</f>
+        <f t="shared" si="1"/>
         <v>195.33499999999998</v>
       </c>
       <c r="C39">
-        <f>(C29+C30+C31+C32+C33+C34+C35+C36+C37+C38)/10</f>
+        <f t="shared" si="1"/>
         <v>162.036</v>
       </c>
       <c r="D39">
-        <f>(D29+D30+D31+D32+D33+D34+D35+D36+D37+D38)/10</f>
+        <f t="shared" si="1"/>
         <v>105.80999999999999</v>
       </c>
       <c r="E39">
-        <f>(E29+E30+E31+E32+E33+E34+E35+E36+E37+E38)/10</f>
+        <f t="shared" si="1"/>
         <v>78.444999999999993</v>
       </c>
       <c r="F39">
-        <f>(F29+F30+F31+F32+F33+F34+F35+F36+F37+F38)/10</f>
+        <f t="shared" si="1"/>
         <v>56.392999999999986</v>
       </c>
       <c r="G39">
-        <f>(G29+G30+G31+G32+G33+G34+G35+G36+G37+G38)/10</f>
+        <f t="shared" si="1"/>
         <v>103.13699999999999</v>
       </c>
       <c r="H39">
-        <f>(H29+H30+H31+H32+H33+H34+H35+H36+H37+H38)/10</f>
+        <f t="shared" si="1"/>
         <v>96.759999999999991</v>
       </c>
       <c r="I39">
-        <f>(I29+I30+I31+I32+I33+I34+I35+I36+I37+I38)/10</f>
+        <f t="shared" si="1"/>
         <v>59.680999999999997</v>
       </c>
     </row>
@@ -1966,39 +4746,39 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>(A45+A46+A48+A49+A47+A50+A51+A52+A53+A54)/10</f>
+        <f t="shared" ref="A55:I55" si="2">(A45+A46+A48+A49+A47+A50+A51+A52+A53+A54)/10</f>
         <v>16.859999999999996</v>
       </c>
       <c r="B55">
-        <f>(B45+B46+B48+B49+B47+B50+B51+B52+B53+B54)/10</f>
+        <f t="shared" si="2"/>
         <v>13.498000000000001</v>
       </c>
       <c r="C55">
-        <f>(C45+C46+C48+C49+C47+C50+C51+C52+C53+C54)/10</f>
+        <f t="shared" si="2"/>
         <v>11.311999999999999</v>
       </c>
       <c r="D55">
-        <f>(D45+D46+D48+D49+D47+D50+D51+D52+D53+D54)/10</f>
+        <f t="shared" si="2"/>
         <v>19.182000000000002</v>
       </c>
       <c r="E55">
-        <f>(E45+E46+E48+E49+E47+E50+E51+E52+E53+E54)/10</f>
+        <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
       <c r="F55">
-        <f>(F45+F46+F48+F49+F47+F50+F51+F52+F53+F54)/10</f>
+        <f t="shared" si="2"/>
         <v>11.457999999999997</v>
       </c>
       <c r="G55">
-        <f>(G45+G46+G48+G49+G47+G50+G51+G52+G53+G54)/10</f>
+        <f t="shared" si="2"/>
         <v>21.15</v>
       </c>
       <c r="H55">
-        <f>(H45+H46+H48+H49+H47+H50+H51+H52+H53+H54)/10</f>
+        <f t="shared" si="2"/>
         <v>16.829499999999999</v>
       </c>
       <c r="I55">
-        <f>(I45+I46+I48+I49+I47+I50+I51+I52+I53+I54)/10</f>
+        <f t="shared" si="2"/>
         <v>13.8</v>
       </c>
     </row>
@@ -2299,39 +5079,39 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>(A58+A59+A60+A61+A62+A63+A64+A65+A66+A67)/10</f>
+        <f t="shared" ref="A68:I68" si="3">(A58+A59+A60+A61+A62+A63+A64+A65+A66+A67)/10</f>
         <v>158.39899999999997</v>
       </c>
       <c r="B68">
-        <f>(B58+B59+B60+B61+B62+B63+B64+B65+B66+B67)/10</f>
+        <f t="shared" si="3"/>
         <v>115.04600000000002</v>
       </c>
       <c r="C68">
-        <f>(C58+C59+C60+C61+C62+C63+C64+C65+C66+C67)/10</f>
+        <f t="shared" si="3"/>
         <v>96.443999999999988</v>
       </c>
       <c r="D68">
-        <f>(D58+D59+D60+D61+D62+D63+D64+D65+D66+D67)/10</f>
+        <f t="shared" si="3"/>
         <v>47.967000000000006</v>
       </c>
       <c r="E68">
-        <f>(E58+E59+E60+E61+E62+E63+E64+E65+E66+E67)/10</f>
+        <f t="shared" si="3"/>
         <v>31.951000000000004</v>
       </c>
       <c r="F68">
-        <f>(F58+F59+F60+F61+F62+F63+F64+F65+F66+F67)/10</f>
+        <f t="shared" si="3"/>
         <v>36.957000000000008</v>
       </c>
       <c r="G68">
-        <f>(G58+G59+G60+G61+G62+G63+G64+G65+G66+G67)/10</f>
+        <f t="shared" si="3"/>
         <v>63.486000000000004</v>
       </c>
       <c r="H68">
-        <f>(H58+H59+H60+H61+H62+H63+H64+H65+H66+H67)/10</f>
+        <f t="shared" si="3"/>
         <v>61.373000000000005</v>
       </c>
       <c r="I68">
-        <f>(I58+I59+I60+I61+I62+I63+I64+I65+I66+I67)/10</f>
+        <f t="shared" si="3"/>
         <v>52.741999999999997</v>
       </c>
     </row>
@@ -4024,39 +6804,39 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f>(A130+A131+A133+A134+A132+A135+A136+A137+A138+A139)/10</f>
+        <f t="shared" ref="A140:I140" si="4">(A130+A131+A133+A134+A132+A135+A136+A137+A138+A139)/10</f>
         <v>17.396999999999998</v>
       </c>
       <c r="B140">
-        <f>(B130+B131+B133+B134+B132+B135+B136+B137+B138+B139)/10</f>
+        <f t="shared" si="4"/>
         <v>14.345999999999998</v>
       </c>
       <c r="C140">
-        <f>(C130+C131+C133+C134+C132+C135+C136+C137+C138+C139)/10</f>
+        <f t="shared" si="4"/>
         <v>11.909000000000001</v>
       </c>
       <c r="D140">
-        <f>(D130+D131+D133+D134+D132+D135+D136+D137+D138+D139)/10</f>
+        <f t="shared" si="4"/>
         <v>17.795000000000005</v>
       </c>
       <c r="E140">
-        <f>(E130+E131+E133+E134+E132+E135+E136+E137+E138+E139)/10</f>
+        <f t="shared" si="4"/>
         <v>13.633000000000001</v>
       </c>
       <c r="F140">
-        <f>(F130+F131+F133+F134+F132+F135+F136+F137+F138+F139)/10</f>
+        <f t="shared" si="4"/>
         <v>15.016999999999999</v>
       </c>
       <c r="G140">
-        <f>(G130+G131+G133+G134+G132+G135+G136+G137+G138+G139)/10</f>
+        <f t="shared" si="4"/>
         <v>24.35</v>
       </c>
       <c r="H140">
-        <f>(H130+H131+H133+H134+H132+H135+H136+H137+H138+H139)/10</f>
+        <f t="shared" si="4"/>
         <v>17.384999999999998</v>
       </c>
       <c r="I140">
-        <f>(I130+I131+I133+I134+I132+I135+I136+I137+I138+I139)/10</f>
+        <f t="shared" si="4"/>
         <v>18.413000000000004</v>
       </c>
     </row>
@@ -4357,39 +7137,39 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f>(A143+A144+A145+A146+A147+A148+A149+A150+A151+A152)/10</f>
+        <f t="shared" ref="A153:I153" si="5">(A143+A144+A145+A146+A147+A148+A149+A150+A151+A152)/10</f>
         <v>16.37</v>
       </c>
       <c r="B153">
-        <f>(B143+B144+B145+B146+B147+B148+B149+B150+B151+B152)/10</f>
+        <f t="shared" si="5"/>
         <v>7.0020000000000007</v>
       </c>
       <c r="C153">
-        <f>(C143+C144+C145+C146+C147+C148+C149+C150+C151+C152)/10</f>
+        <f t="shared" si="5"/>
         <v>7.2139999999999986</v>
       </c>
       <c r="D153">
-        <f>(D143+D144+D145+D146+D147+D148+D149+D150+D151+D152)/10</f>
+        <f t="shared" si="5"/>
         <v>4.3439999999999994</v>
       </c>
       <c r="E153">
-        <f>(E143+E144+E145+E146+E147+E148+E149+E150+E151+E152)/10</f>
+        <f t="shared" si="5"/>
         <v>3.7630000000000003</v>
       </c>
       <c r="F153">
-        <f>(F143+F144+F145+F146+F147+F148+F149+F150+F151+F152)/10</f>
+        <f t="shared" si="5"/>
         <v>3.6450000000000005</v>
       </c>
       <c r="G153">
-        <f>(G143+G144+G145+G146+G147+G148+G149+G150+G151+G152)/10</f>
+        <f t="shared" si="5"/>
         <v>6.76</v>
       </c>
       <c r="H153">
-        <f>(H143+H144+H145+H146+H147+H148+H149+H150+H151+H152)/10</f>
+        <f t="shared" si="5"/>
         <v>7.6980000000000004</v>
       </c>
       <c r="I153">
-        <f>(I143+I144+I145+I146+I147+I148+I149+I150+I151+I152)/10</f>
+        <f t="shared" si="5"/>
         <v>5.7249999999999996</v>
       </c>
     </row>
@@ -4714,39 +7494,39 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f>(A157+A158+A160+A161+A159+A162+A163+A164+A165+A166)/10</f>
+        <f t="shared" ref="A167:I167" si="6">(A157+A158+A160+A161+A159+A162+A163+A164+A165+A166)/10</f>
         <v>17.201000000000001</v>
       </c>
       <c r="B167">
-        <f>(B157+B158+B160+B161+B159+B162+B163+B164+B165+B166)/10</f>
+        <f t="shared" si="6"/>
         <v>13.812999999999999</v>
       </c>
       <c r="C167">
-        <f>(C157+C158+C160+C161+C159+C162+C163+C164+C165+C166)/10</f>
+        <f t="shared" si="6"/>
         <v>11.586</v>
       </c>
       <c r="D167">
-        <f>(D157+D158+D160+D161+D159+D162+D163+D164+D165+D166)/10</f>
+        <f t="shared" si="6"/>
         <v>23.055</v>
       </c>
       <c r="E167">
-        <f>(E157+E158+E160+E161+E159+E162+E163+E164+E165+E166)/10</f>
+        <f t="shared" si="6"/>
         <v>16.838999999999995</v>
       </c>
       <c r="F167">
-        <f>(F157+F158+F160+F161+F159+F162+F163+F164+F165+F166)/10</f>
+        <f t="shared" si="6"/>
         <v>13.206</v>
       </c>
       <c r="G167">
-        <f>(G157+G158+G160+G161+G159+G162+G163+G164+G165+G166)/10</f>
+        <f t="shared" si="6"/>
         <v>21.391999999999999</v>
       </c>
       <c r="H167">
-        <f>(H157+H158+H160+H161+H159+H162+H163+H164+H165+H166)/10</f>
+        <f t="shared" si="6"/>
         <v>17.873000000000001</v>
       </c>
       <c r="I167">
-        <f>(I157+I158+I160+I161+I159+I162+I163+I164+I165+I166)/10</f>
+        <f t="shared" si="6"/>
         <v>14.388</v>
       </c>
     </row>
@@ -5047,39 +7827,39 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f>(A170+A171+A172+A173+A174+A175+A176+A177+A178+A179)/10</f>
+        <f t="shared" ref="A180:I180" si="7">(A170+A171+A172+A173+A174+A175+A176+A177+A178+A179)/10</f>
         <v>9.4830000000000005</v>
       </c>
       <c r="B180">
-        <f>(B170+B171+B172+B173+B174+B175+B176+B177+B178+B179)/10</f>
+        <f t="shared" si="7"/>
         <v>8.3570000000000011</v>
       </c>
       <c r="C180">
-        <f>(C170+C171+C172+C173+C174+C175+C176+C177+C178+C179)/10</f>
+        <f t="shared" si="7"/>
         <v>6.2230000000000008</v>
       </c>
       <c r="D180">
-        <f>(D170+D171+D172+D173+D174+D175+D176+D177+D178+D179)/10</f>
+        <f t="shared" si="7"/>
         <v>2.613</v>
       </c>
       <c r="E180">
-        <f>(E170+E171+E172+E173+E174+E175+E176+E177+E178+E179)/10</f>
+        <f t="shared" si="7"/>
         <v>3.2290000000000001</v>
       </c>
       <c r="F180">
-        <f>(F170+F171+F172+F173+F174+F175+F176+F177+F178+F179)/10</f>
+        <f t="shared" si="7"/>
         <v>2.4239999999999999</v>
       </c>
       <c r="G180">
-        <f>(G170+G171+G172+G173+G174+G175+G176+G177+G178+G179)/10</f>
+        <f t="shared" si="7"/>
         <v>5.4449999999999994</v>
       </c>
       <c r="H180">
-        <f>(H170+H171+H172+H173+H174+H175+H176+H177+H178+H179)/10</f>
+        <f t="shared" si="7"/>
         <v>6.597999999999999</v>
       </c>
       <c r="I180">
-        <f>(I170+I171+I172+I173+I174+I175+I176+I177+I178+I179)/10</f>
+        <f t="shared" si="7"/>
         <v>5.46</v>
       </c>
     </row>
@@ -5404,39 +8184,39 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f>(A185+A186+A188+A189+A187+A190+A191+A192+A193+A194)/10</f>
+        <f t="shared" ref="A195:I195" si="8">(A185+A186+A188+A189+A187+A190+A191+A192+A193+A194)/10</f>
         <v>17.029</v>
       </c>
       <c r="B195">
-        <f>(B185+B186+B188+B189+B187+B190+B191+B192+B193+B194)/10</f>
+        <f t="shared" si="8"/>
         <v>13.610999999999999</v>
       </c>
       <c r="C195">
-        <f>(C185+C186+C188+C189+C187+C190+C191+C192+C193+C194)/10</f>
+        <f t="shared" si="8"/>
         <v>11.435999999999998</v>
       </c>
       <c r="D195">
-        <f>(D185+D186+D188+D189+D187+D190+D191+D192+D193+D194)/10</f>
+        <f t="shared" si="8"/>
         <v>18.652999999999999</v>
       </c>
       <c r="E195">
-        <f>(E185+E186+E188+E189+E187+E190+E191+E192+E193+E194)/10</f>
+        <f t="shared" si="8"/>
         <v>15.334999999999999</v>
       </c>
       <c r="F195">
-        <f>(F185+F186+F188+F189+F187+F190+F191+F192+F193+F194)/10</f>
+        <f t="shared" si="8"/>
         <v>13.290000000000001</v>
       </c>
       <c r="G195">
-        <f>(G185+G186+G188+G189+G187+G190+G191+G192+G193+G194)/10</f>
+        <f t="shared" si="8"/>
         <v>20.929000000000002</v>
       </c>
       <c r="H195">
-        <f>(H185+H186+H188+H189+H187+H190+H191+H192+H193+H194)/10</f>
+        <f t="shared" si="8"/>
         <v>20.047000000000004</v>
       </c>
       <c r="I195">
-        <f>(I185+I186+I188+I189+I187+I190+I191+I192+I193+I194)/10</f>
+        <f t="shared" si="8"/>
         <v>14.886000000000001</v>
       </c>
     </row>
@@ -5737,39 +8517,39 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f>(A198+A199+A200+A201+A202+A203+A204+A205+A206+A207)/10</f>
+        <f t="shared" ref="A208:I208" si="9">(A198+A199+A200+A201+A202+A203+A204+A205+A206+A207)/10</f>
         <v>7.5119999999999987</v>
       </c>
       <c r="B208">
-        <f>(B198+B199+B200+B201+B202+B203+B204+B205+B206+B207)/10</f>
+        <f t="shared" si="9"/>
         <v>6.395999999999999</v>
       </c>
       <c r="C208">
-        <f>(C198+C199+C200+C201+C202+C203+C204+C205+C206+C207)/10</f>
+        <f t="shared" si="9"/>
         <v>4.3420000000000005</v>
       </c>
       <c r="D208">
-        <f>(D198+D199+D200+D201+D202+D203+D204+D205+D206+D207)/10</f>
+        <f t="shared" si="9"/>
         <v>2.3029999999999999</v>
       </c>
       <c r="E208">
-        <f>(E198+E199+E200+E201+E202+E203+E204+E205+E206+E207)/10</f>
+        <f t="shared" si="9"/>
         <v>2.5710000000000002</v>
       </c>
       <c r="F208">
-        <f>(F198+F199+F200+F201+F202+F203+F204+F205+F206+F207)/10</f>
+        <f t="shared" si="9"/>
         <v>2.9069999999999996</v>
       </c>
       <c r="G208">
-        <f>(G198+G199+G200+G201+G202+G203+G204+G205+G206+G207)/10</f>
+        <f t="shared" si="9"/>
         <v>5.0270000000000001</v>
       </c>
       <c r="H208">
-        <f>(H198+H199+H200+H201+H202+H203+H204+H205+H206+H207)/10</f>
+        <f t="shared" si="9"/>
         <v>4.6079999999999997</v>
       </c>
       <c r="I208">
-        <f>(I198+I199+I200+I201+I202+I203+I204+I205+I206+I207)/10</f>
+        <f t="shared" si="9"/>
         <v>4.0349999999999993</v>
       </c>
     </row>
@@ -6094,31 +8874,31 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f>(A212+A213+A215+A216+A214+A217+A218+A219+A220+A221)/10</f>
+        <f t="shared" ref="A222:G222" si="10">(A212+A213+A215+A216+A214+A217+A218+A219+A220+A221)/10</f>
         <v>16.818000000000001</v>
       </c>
       <c r="B222">
-        <f>(B212+B213+B215+B216+B214+B217+B218+B219+B220+B221)/10</f>
+        <f t="shared" si="10"/>
         <v>13.455999999999998</v>
       </c>
       <c r="C222">
-        <f>(C212+C213+C215+C216+C214+C217+C218+C219+C220+C221)/10</f>
+        <f t="shared" si="10"/>
         <v>11.17</v>
       </c>
       <c r="D222">
-        <f>(D212+D213+D215+D216+D214+D217+D218+D219+D220+D221)/10</f>
+        <f t="shared" si="10"/>
         <v>22.352</v>
       </c>
       <c r="E222">
-        <f>(E212+E213+E215+E216+E214+E217+E218+E219+E220+E221)/10</f>
+        <f t="shared" si="10"/>
         <v>15.327999999999999</v>
       </c>
       <c r="F222">
-        <f>(F212+F213+F215+F216+F214+F217+F218+F219+F220+F221)/10</f>
+        <f t="shared" si="10"/>
         <v>12.774000000000001</v>
       </c>
       <c r="G222">
-        <f>(G212+G213+G215+G216+G214+G217+G218+G219+G220+G221)/10</f>
+        <f t="shared" si="10"/>
         <v>20.872</v>
       </c>
       <c r="H222">
@@ -6427,31 +9207,31 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f>(A225+A226+A227+A228+A229+A230+A231+A232+A233+A234)/10</f>
+        <f t="shared" ref="A235:G235" si="11">(A225+A226+A227+A228+A229+A230+A231+A232+A233+A234)/10</f>
         <v>6.5569999999999995</v>
       </c>
       <c r="B235">
-        <f>(B225+B226+B227+B228+B229+B230+B231+B232+B233+B234)/10</f>
+        <f t="shared" si="11"/>
         <v>5.3370000000000006</v>
       </c>
       <c r="C235">
-        <f>(C225+C226+C227+C228+C229+C230+C231+C232+C233+C234)/10</f>
+        <f t="shared" si="11"/>
         <v>3.1619999999999999</v>
       </c>
       <c r="D235">
-        <f>(D225+D226+D227+D228+D229+D230+D231+D232+D233+D234)/10</f>
+        <f t="shared" si="11"/>
         <v>6.226</v>
       </c>
       <c r="E235">
-        <f>(E225+E226+E227+E228+E229+E230+E231+E232+E233+E234)/10</f>
+        <f t="shared" si="11"/>
         <v>3.4550000000000005</v>
       </c>
       <c r="F235">
-        <f>(F225+F226+F227+F228+F229+F230+F231+F232+F233+F234)/10</f>
+        <f t="shared" si="11"/>
         <v>4.5120000000000005</v>
       </c>
       <c r="G235">
-        <f>(G225+G226+G227+G228+G229+G230+G231+G232+G233+G234)/10</f>
+        <f t="shared" si="11"/>
         <v>3.5920000000000001</v>
       </c>
       <c r="H235">
@@ -6573,12 +9353,12 @@
         <v>14.660625</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>74</v>
       </c>
@@ -6615,7 +9395,7 @@
         <v>4.4487777777777779</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>75</v>
       </c>
@@ -6656,8 +9436,766 @@
         <v>24.445749999999997</v>
       </c>
     </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>78</v>
+      </c>
+      <c r="D249" t="s">
+        <v>79</v>
+      </c>
+      <c r="H249" t="s">
+        <v>78</v>
+      </c>
+      <c r="K249" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>80</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>80</v>
+      </c>
+      <c r="H250" t="s">
+        <v>9</v>
+      </c>
+      <c r="I250" t="s">
+        <v>80</v>
+      </c>
+      <c r="K250" t="s">
+        <v>9</v>
+      </c>
+      <c r="L250" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.4</v>
+      </c>
+      <c r="B251">
+        <v>28.5</v>
+      </c>
+      <c r="D251">
+        <v>1.47</v>
+      </c>
+      <c r="E251">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="H251">
+        <v>1.07</v>
+      </c>
+      <c r="I251">
+        <v>33.39</v>
+      </c>
+      <c r="K251">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="L251">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B252">
+        <v>26.38</v>
+      </c>
+      <c r="D252">
+        <v>1.74</v>
+      </c>
+      <c r="E252">
+        <v>18.11</v>
+      </c>
+      <c r="H252">
+        <v>4.83</v>
+      </c>
+      <c r="I252">
+        <v>28.94</v>
+      </c>
+      <c r="K252">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="L252">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="B253">
+        <v>24.57</v>
+      </c>
+      <c r="D253">
+        <v>1.87</v>
+      </c>
+      <c r="E253">
+        <v>17.22</v>
+      </c>
+      <c r="H253">
+        <v>7.38</v>
+      </c>
+      <c r="I253">
+        <v>25.54</v>
+      </c>
+      <c r="K253">
+        <v>0.26</v>
+      </c>
+      <c r="L253">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>14.09</v>
+      </c>
+      <c r="B254">
+        <v>22.99</v>
+      </c>
+      <c r="D254">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E254">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H254">
+        <v>9.39</v>
+      </c>
+      <c r="I254">
+        <v>22.84</v>
+      </c>
+      <c r="K254">
+        <v>0.4</v>
+      </c>
+      <c r="L254">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>18.25</v>
+      </c>
+      <c r="B255">
+        <v>21.58</v>
+      </c>
+      <c r="D255">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E255">
+        <v>15.67</v>
+      </c>
+      <c r="H255">
+        <v>11.4</v>
+      </c>
+      <c r="I255">
+        <v>20.65</v>
+      </c>
+      <c r="K255">
+        <v>0.4</v>
+      </c>
+      <c r="L255">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>22.01</v>
+      </c>
+      <c r="B256">
+        <v>20.32</v>
+      </c>
+      <c r="D256">
+        <v>2.41</v>
+      </c>
+      <c r="E256">
+        <v>14.99</v>
+      </c>
+      <c r="H256">
+        <v>13.28</v>
+      </c>
+      <c r="I256">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="K256">
+        <v>0.53</v>
+      </c>
+      <c r="L256">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>25.63</v>
+      </c>
+      <c r="B257">
+        <v>19.21</v>
+      </c>
+      <c r="D257">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E257">
+        <v>14.37</v>
+      </c>
+      <c r="H257">
+        <v>14.89</v>
+      </c>
+      <c r="I257">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="K257">
+        <v>0.67</v>
+      </c>
+      <c r="L257">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>28.99</v>
+      </c>
+      <c r="B258">
+        <v>18.21</v>
+      </c>
+      <c r="D258">
+        <v>2.68</v>
+      </c>
+      <c r="E258">
+        <v>13.78</v>
+      </c>
+      <c r="H258">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="I258">
+        <v>15.95</v>
+      </c>
+      <c r="K258">
+        <v>0.8</v>
+      </c>
+      <c r="L258">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="B259">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="D259">
+        <v>2.71</v>
+      </c>
+      <c r="E259">
+        <v>13.25</v>
+      </c>
+      <c r="H259">
+        <v>17.71</v>
+      </c>
+      <c r="I259">
+        <v>14.8</v>
+      </c>
+      <c r="K259">
+        <v>0.8</v>
+      </c>
+      <c r="L259">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>35.43</v>
+      </c>
+      <c r="B260">
+        <v>16.48</v>
+      </c>
+      <c r="D260">
+        <v>2.95</v>
+      </c>
+      <c r="E260">
+        <v>12.75</v>
+      </c>
+      <c r="H260">
+        <v>19.05</v>
+      </c>
+      <c r="I260">
+        <v>13.81</v>
+      </c>
+      <c r="K260">
+        <v>0.9</v>
+      </c>
+      <c r="L260">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>38.11</v>
+      </c>
+      <c r="B261">
+        <v>15.73</v>
+      </c>
+      <c r="D261">
+        <v>3.08</v>
+      </c>
+      <c r="E261">
+        <v>12.29</v>
+      </c>
+      <c r="H261">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="I261">
+        <v>13.73</v>
+      </c>
+      <c r="K261">
+        <v>0.9</v>
+      </c>
+      <c r="L261">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>41.07</v>
+      </c>
+      <c r="B262">
+        <v>15.04</v>
+      </c>
+      <c r="D262">
+        <v>3.22</v>
+      </c>
+      <c r="E262">
+        <v>11.85</v>
+      </c>
+      <c r="H262">
+        <v>21.74</v>
+      </c>
+      <c r="I262">
+        <v>13.67</v>
+      </c>
+      <c r="K262">
+        <v>1.07</v>
+      </c>
+      <c r="L262">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>44.02</v>
+      </c>
+      <c r="B263">
+        <v>14.45</v>
+      </c>
+      <c r="D263">
+        <v>3.35</v>
+      </c>
+      <c r="E263">
+        <v>11.83</v>
+      </c>
+      <c r="H263">
+        <v>22.81</v>
+      </c>
+      <c r="I263">
+        <v>13.64</v>
+      </c>
+      <c r="K263">
+        <v>1.2</v>
+      </c>
+      <c r="L263">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>46.7</v>
+      </c>
+      <c r="B264">
+        <v>13.84</v>
+      </c>
+      <c r="D264">
+        <v>3.48</v>
+      </c>
+      <c r="E264">
+        <v>11.81</v>
+      </c>
+      <c r="H264">
+        <v>24.15</v>
+      </c>
+      <c r="I264">
+        <v>13.62</v>
+      </c>
+      <c r="K264">
+        <v>1.2</v>
+      </c>
+      <c r="L264">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>49.12</v>
+      </c>
+      <c r="B265">
+        <v>13.3</v>
+      </c>
+      <c r="D265">
+        <v>3.62</v>
+      </c>
+      <c r="E265">
+        <v>11.8</v>
+      </c>
+      <c r="H265">
+        <v>25.36</v>
+      </c>
+      <c r="I265">
+        <v>13.58</v>
+      </c>
+      <c r="K265">
+        <v>1.34</v>
+      </c>
+      <c r="L265">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>51.53</v>
+      </c>
+      <c r="B266">
+        <v>12.8</v>
+      </c>
+      <c r="D266">
+        <v>3.62</v>
+      </c>
+      <c r="E266">
+        <v>11.79</v>
+      </c>
+      <c r="H266">
+        <v>26.57</v>
+      </c>
+      <c r="I266">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>54.08</v>
+      </c>
+      <c r="B267">
+        <v>12.35</v>
+      </c>
+      <c r="D267">
+        <v>3.75</v>
+      </c>
+      <c r="E267">
+        <v>11.78</v>
+      </c>
+      <c r="H267">
+        <v>27.91</v>
+      </c>
+      <c r="I267">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>56.23</v>
+      </c>
+      <c r="B268">
+        <v>11.91</v>
+      </c>
+      <c r="D268">
+        <v>3.89</v>
+      </c>
+      <c r="E268">
+        <v>11.76</v>
+      </c>
+      <c r="H268">
+        <v>29.12</v>
+      </c>
+      <c r="I268">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>58.25</v>
+      </c>
+      <c r="B269">
+        <v>11.51</v>
+      </c>
+      <c r="D269">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E269">
+        <v>11.75</v>
+      </c>
+      <c r="H269">
+        <v>30.46</v>
+      </c>
+      <c r="I269">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>60.53</v>
+      </c>
+      <c r="B270">
+        <v>11.49</v>
+      </c>
+      <c r="D270">
+        <v>4.16</v>
+      </c>
+      <c r="E270">
+        <v>11.75</v>
+      </c>
+      <c r="H270">
+        <v>31.67</v>
+      </c>
+      <c r="I270">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>62.67</v>
+      </c>
+      <c r="B271">
+        <v>11.47</v>
+      </c>
+      <c r="H271">
+        <v>33.01</v>
+      </c>
+      <c r="I271">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>64.69</v>
+      </c>
+      <c r="B272">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="B273">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="B274">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>71</v>
+      </c>
+      <c r="B275">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="B276">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>75.02</v>
+      </c>
+      <c r="B277">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>77.17</v>
+      </c>
+      <c r="B278">
+        <v>11.324999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="B279">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>81.47</v>
+      </c>
+      <c r="B280">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>83.34</v>
+      </c>
+      <c r="B281">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>85.63</v>
+      </c>
+      <c r="B282">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>87.77</v>
+      </c>
+      <c r="B283">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>89.79</v>
+      </c>
+      <c r="B284">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>91.67</v>
+      </c>
+      <c r="B285">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>93.81</v>
+      </c>
+      <c r="B286">
+        <v>11.244999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>95.83</v>
+      </c>
+      <c r="B287">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>97.71</v>
+      </c>
+      <c r="B288">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>99.85</v>
+      </c>
+      <c r="B289">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>101.87</v>
+      </c>
+      <c r="B290">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>103.75</v>
+      </c>
+      <c r="B291">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>105.89</v>
+      </c>
+      <c r="B292">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>107.91</v>
+      </c>
+      <c r="B293">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>110.05</v>
+      </c>
+      <c r="B294">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>112.07</v>
+      </c>
+      <c r="B295">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>114.21</v>
+      </c>
+      <c r="B296">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>116.23</v>
+      </c>
+      <c r="B297">
+        <v>11.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC096D6-1501-415B-AF95-0E1F02198DEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE6F04-14C0-4FA7-85BC-D3560DAD3BB9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Busqueda local 1 - Inst 1</t>
   </si>
@@ -1926,6 +1926,1105 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>First</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7D6B-401B-B9FE-9F39783BF661}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$T$251:$T$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$U$251:$U$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.03</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.989999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D6B-401B-B9FE-9F39783BF661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-7D6B-401B-B9FE-9F39783BF661}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$Q$251:$Q$303</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103.61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>106.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>113.01</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>116.23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>119.23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>122.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>125.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>131.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>138.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>141.19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>144.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>150.59</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>153.54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>156.76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>162.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>166.16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>169.24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>175.55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>178.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$R$251:$R$303</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.95</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.79</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D6B-401B-B9FE-9F39783BF661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675044480"/>
+        <c:axId val="673318600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675044480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673318600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673318600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675044480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1967,6 +3066,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3046,6 +4185,526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3086,16 +4745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3117,6 +4776,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>232683</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>11567</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2D0442-3AAB-494B-A1D4-2D4CC627FD03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3388,10 +5085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q297"/>
+  <dimension ref="A1:U303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L266" sqref="L266"/>
+    <sheetView tabSelected="1" topLeftCell="J242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH267" sqref="AH267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9353,12 +11050,12 @@
         <v>14.660625</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>74</v>
       </c>
@@ -9395,7 +11092,7 @@
         <v>4.4487777777777779</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>75</v>
       </c>
@@ -9436,12 +11133,12 @@
         <v>24.445749999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>78</v>
       </c>
@@ -9454,8 +11151,14 @@
       <c r="K249" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q249" t="s">
+        <v>78</v>
+      </c>
+      <c r="T249" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -9480,8 +11183,20 @@
       <c r="L250" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q250" t="s">
+        <v>9</v>
+      </c>
+      <c r="R250" t="s">
+        <v>80</v>
+      </c>
+      <c r="T250" t="s">
+        <v>9</v>
+      </c>
+      <c r="U250" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0.4</v>
       </c>
@@ -9506,8 +11221,20 @@
       <c r="L251">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <v>0.53</v>
+      </c>
+      <c r="R251">
+        <v>28.97</v>
+      </c>
+      <c r="T251">
+        <v>0.4</v>
+      </c>
+      <c r="U251">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5.0999999999999996</v>
       </c>
@@ -9532,8 +11259,20 @@
       <c r="L252">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>6.57</v>
+      </c>
+      <c r="R252">
+        <v>27.52</v>
+      </c>
+      <c r="T252">
+        <v>0.67</v>
+      </c>
+      <c r="U252">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9.7899999999999991</v>
       </c>
@@ -9558,8 +11297,20 @@
       <c r="L253">
         <v>14.62</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <v>12.21</v>
+      </c>
+      <c r="R253">
+        <v>26.21</v>
+      </c>
+      <c r="T253">
+        <v>0.93</v>
+      </c>
+      <c r="U253">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>14.09</v>
       </c>
@@ -9584,8 +11335,20 @@
       <c r="L254">
         <v>14.54</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>16.64</v>
+      </c>
+      <c r="R254">
+        <v>25.02</v>
+      </c>
+      <c r="T254">
+        <v>1.2</v>
+      </c>
+      <c r="U254">
+        <v>25.03</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>18.25</v>
       </c>
@@ -9610,8 +11373,20 @@
       <c r="L255">
         <v>14.46</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>21.2</v>
+      </c>
+      <c r="R255">
+        <v>23.94</v>
+      </c>
+      <c r="T255">
+        <v>1.47</v>
+      </c>
+      <c r="U255">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>22.01</v>
       </c>
@@ -9636,8 +11411,20 @@
       <c r="L256">
         <v>14.36</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>25.9</v>
+      </c>
+      <c r="R256">
+        <v>22.93</v>
+      </c>
+      <c r="T256">
+        <v>1.74</v>
+      </c>
+      <c r="U256">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>25.63</v>
       </c>
@@ -9662,8 +11449,20 @@
       <c r="L257">
         <v>14.29</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>30.06</v>
+      </c>
+      <c r="R257">
+        <v>21.99</v>
+      </c>
+      <c r="T257">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U257">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>28.99</v>
       </c>
@@ -9688,8 +11487,20 @@
       <c r="L258">
         <v>14.22</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="R258">
+        <v>21.14</v>
+      </c>
+      <c r="T258">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="U258">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>32.479999999999997</v>
       </c>
@@ -9714,8 +11525,20 @@
       <c r="L259">
         <v>14.12</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>38.11</v>
+      </c>
+      <c r="R259">
+        <v>20.34</v>
+      </c>
+      <c r="T259">
+        <v>2.41</v>
+      </c>
+      <c r="U259">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>35.43</v>
       </c>
@@ -9740,8 +11563,20 @@
       <c r="L260">
         <v>14.05</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q260">
+        <v>41.47</v>
+      </c>
+      <c r="R260">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T260">
+        <v>2.68</v>
+      </c>
+      <c r="U260">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>38.11</v>
       </c>
@@ -9766,8 +11601,20 @@
       <c r="L261">
         <v>13.96</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>45.09</v>
+      </c>
+      <c r="R261">
+        <v>18.91</v>
+      </c>
+      <c r="T261">
+        <v>2.81</v>
+      </c>
+      <c r="U261">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>41.07</v>
       </c>
@@ -9792,8 +11639,20 @@
       <c r="L262">
         <v>13.93</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>48.98</v>
+      </c>
+      <c r="R262">
+        <v>18.25</v>
+      </c>
+      <c r="T262">
+        <v>2.95</v>
+      </c>
+      <c r="U262">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>44.02</v>
       </c>
@@ -9818,8 +11677,20 @@
       <c r="L263">
         <v>13.87</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>52.21</v>
+      </c>
+      <c r="R263">
+        <v>18.21</v>
+      </c>
+      <c r="T263">
+        <v>3.22</v>
+      </c>
+      <c r="U263">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>46.7</v>
       </c>
@@ -9844,8 +11715,20 @@
       <c r="L264">
         <v>13.82</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q264">
+        <v>55.7</v>
+      </c>
+      <c r="R264">
+        <v>18.16</v>
+      </c>
+      <c r="T264">
+        <v>3.35</v>
+      </c>
+      <c r="U264">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>49.12</v>
       </c>
@@ -9870,8 +11753,20 @@
       <c r="L265">
         <v>13.82</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>59.59</v>
+      </c>
+      <c r="R265">
+        <v>18.09</v>
+      </c>
+      <c r="T265">
+        <v>3.62</v>
+      </c>
+      <c r="U265">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>51.53</v>
       </c>
@@ -9890,8 +11785,20 @@
       <c r="I266">
         <v>13.57</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>62.81</v>
+      </c>
+      <c r="R266">
+        <v>18.04</v>
+      </c>
+      <c r="T266">
+        <v>3.75</v>
+      </c>
+      <c r="U266">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>54.08</v>
       </c>
@@ -9910,8 +11817,20 @@
       <c r="I267">
         <v>13.54</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>66.16</v>
+      </c>
+      <c r="R267">
+        <v>17.98</v>
+      </c>
+      <c r="T267">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="U267">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>56.23</v>
       </c>
@@ -9930,8 +11849,20 @@
       <c r="I268">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>69.92</v>
+      </c>
+      <c r="R268">
+        <v>17.93</v>
+      </c>
+      <c r="T268">
+        <v>4.16</v>
+      </c>
+      <c r="U268">
+        <v>18.010000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>58.25</v>
       </c>
@@ -9950,8 +11881,20 @@
       <c r="I269">
         <v>13.48</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>72.88</v>
+      </c>
+      <c r="R269">
+        <v>17.88</v>
+      </c>
+      <c r="T269">
+        <v>4.42</v>
+      </c>
+      <c r="U269">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>60.53</v>
       </c>
@@ -9970,8 +11913,20 @@
       <c r="I270">
         <v>13.45</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="R270">
+        <v>17.82</v>
+      </c>
+      <c r="T270">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="U270">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>62.67</v>
       </c>
@@ -9984,213 +11939,615 @@
       <c r="I271">
         <v>13.45</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>79.45</v>
+      </c>
+      <c r="R271">
+        <v>17.77</v>
+      </c>
+      <c r="T271">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="U271">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>64.69</v>
       </c>
       <c r="B272">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>82.81</v>
+      </c>
+      <c r="R272">
+        <v>17.71</v>
+      </c>
+      <c r="T272">
+        <v>4.96</v>
+      </c>
+      <c r="U272">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>66.569999999999993</v>
       </c>
       <c r="B273">
         <v>11.42</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>86.3</v>
+      </c>
+      <c r="R273">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="T273">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U273">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>68.849999999999994</v>
       </c>
       <c r="B274">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>89.79</v>
+      </c>
+      <c r="R274">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="T274">
+        <v>5.23</v>
+      </c>
+      <c r="U274">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>71</v>
       </c>
       <c r="B275">
         <v>11.38</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>93.41</v>
+      </c>
+      <c r="R275">
+        <v>17.54</v>
+      </c>
+      <c r="T275">
+        <v>5.5</v>
+      </c>
+      <c r="U275">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>73.010000000000005</v>
       </c>
       <c r="B276">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>96.9</v>
+      </c>
+      <c r="R276">
+        <v>17.48</v>
+      </c>
+      <c r="T276">
+        <v>5.63</v>
+      </c>
+      <c r="U276">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>75.02</v>
       </c>
       <c r="B277">
         <v>11.33</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>100.26</v>
+      </c>
+      <c r="R277">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="T277">
+        <v>5.9</v>
+      </c>
+      <c r="U277">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>77.17</v>
       </c>
       <c r="B278">
         <v>11.324999999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>103.61</v>
+      </c>
+      <c r="R278">
+        <v>17.37</v>
+      </c>
+      <c r="T278">
+        <v>6.03</v>
+      </c>
+      <c r="U278">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>79.319999999999993</v>
       </c>
       <c r="B279">
         <v>11.32</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>106.7</v>
+      </c>
+      <c r="R279">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="T279">
+        <v>6.17</v>
+      </c>
+      <c r="U279">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>81.47</v>
       </c>
       <c r="B280">
         <v>11.31</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>109.65</v>
+      </c>
+      <c r="R280">
+        <v>17.25</v>
+      </c>
+      <c r="T280">
+        <v>6.44</v>
+      </c>
+      <c r="U280">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>83.34</v>
       </c>
       <c r="B281">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>113.01</v>
+      </c>
+      <c r="R281">
+        <v>17.21</v>
+      </c>
+      <c r="T281">
+        <v>6.57</v>
+      </c>
+      <c r="U281">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>85.63</v>
       </c>
       <c r="B282">
         <v>11.29</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>116.23</v>
+      </c>
+      <c r="R282">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="T282">
+        <v>6.84</v>
+      </c>
+      <c r="U282">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>87.77</v>
       </c>
       <c r="B283">
         <v>11.28</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>119.23</v>
+      </c>
+      <c r="R283">
+        <v>17.12</v>
+      </c>
+      <c r="T283">
+        <v>6.97</v>
+      </c>
+      <c r="U283">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>89.79</v>
       </c>
       <c r="B284">
         <v>11.27</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>119.05</v>
+      </c>
+      <c r="R284">
+        <v>17.07</v>
+      </c>
+      <c r="T284">
+        <v>7.11</v>
+      </c>
+      <c r="U284">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>91.67</v>
       </c>
       <c r="B285">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>122.4</v>
+      </c>
+      <c r="R285">
+        <v>17.04</v>
+      </c>
+      <c r="T285">
+        <v>7.38</v>
+      </c>
+      <c r="U285">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>93.81</v>
       </c>
       <c r="B286">
         <v>11.244999999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q286">
+        <v>125.35</v>
+      </c>
+      <c r="R286">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="T286">
+        <v>7.51</v>
+      </c>
+      <c r="U286">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>95.83</v>
       </c>
       <c r="B287">
         <v>11.24</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>128.71</v>
+      </c>
+      <c r="R287">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="T287">
+        <v>7.65</v>
+      </c>
+      <c r="U287">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>97.71</v>
       </c>
       <c r="B288">
         <v>11.23</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="R288">
+        <v>16.97</v>
+      </c>
+      <c r="T288">
+        <v>7.78</v>
+      </c>
+      <c r="U288">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>99.85</v>
       </c>
       <c r="B289">
         <v>11.22</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>134.62</v>
+      </c>
+      <c r="R289">
+        <v>16.95</v>
+      </c>
+      <c r="T289">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="U289">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>101.87</v>
       </c>
       <c r="B290">
         <v>11.21</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>138.11000000000001</v>
+      </c>
+      <c r="R290">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="T290">
+        <v>8.18</v>
+      </c>
+      <c r="U290">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>103.75</v>
       </c>
       <c r="B291">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>141.19</v>
+      </c>
+      <c r="R291">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T291">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="U291">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>105.89</v>
       </c>
       <c r="B292">
         <v>11.19</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q292">
+        <v>144.13999999999999</v>
+      </c>
+      <c r="R292">
+        <v>16.89</v>
+      </c>
+      <c r="T292">
+        <v>8.58</v>
+      </c>
+      <c r="U292">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>107.91</v>
       </c>
       <c r="B293">
         <v>11.18</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q293">
+        <v>147.5</v>
+      </c>
+      <c r="R293">
+        <v>16.87</v>
+      </c>
+      <c r="T293">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="U293">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>110.05</v>
       </c>
       <c r="B294">
         <v>11.16</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q294">
+        <v>150.59</v>
+      </c>
+      <c r="R294">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="T294">
+        <v>8.99</v>
+      </c>
+      <c r="U294">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>112.07</v>
       </c>
       <c r="B295">
         <v>11.15</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q295">
+        <v>153.54</v>
+      </c>
+      <c r="R295">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="T295">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="U295">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>114.21</v>
       </c>
       <c r="B296">
         <v>11.14</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q296">
+        <v>156.76</v>
+      </c>
+      <c r="R296">
+        <v>16.79</v>
+      </c>
+      <c r="T296">
+        <v>9.26</v>
+      </c>
+      <c r="U296">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>116.23</v>
       </c>
       <c r="B297">
         <v>11.14</v>
+      </c>
+      <c r="Q297">
+        <v>159.97999999999999</v>
+      </c>
+      <c r="R297">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="T297">
+        <v>9.52</v>
+      </c>
+      <c r="U297">
+        <v>17.079999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q298">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="R298">
+        <v>16.75</v>
+      </c>
+      <c r="T298">
+        <v>9.66</v>
+      </c>
+      <c r="U298">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q299">
+        <v>166.16</v>
+      </c>
+      <c r="R299">
+        <v>16.72</v>
+      </c>
+      <c r="T299">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="U299">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q300">
+        <v>169.24</v>
+      </c>
+      <c r="R300">
+        <v>16.7</v>
+      </c>
+      <c r="T300">
+        <v>10.06</v>
+      </c>
+      <c r="U300">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q301">
+        <v>172.2</v>
+      </c>
+      <c r="R301">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="T301">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U301">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q302">
+        <v>175.55</v>
+      </c>
+      <c r="R302">
+        <v>16.7</v>
+      </c>
+      <c r="T302">
+        <v>10.33</v>
+      </c>
+      <c r="U302">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q303">
+        <v>178.77</v>
+      </c>
+      <c r="R303">
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>

--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DDF330-D854-4A0F-B8D0-2EC3AECE8C6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40CDFA1-78D2-4770-9E58-449C95FFBB5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="101">
   <si>
     <t>Busqueda local 1 - Inst 1</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Busa local 8</t>
+  </si>
+  <si>
+    <t>Best ILS</t>
   </si>
 </sst>
 </file>
@@ -7599,6 +7602,2253 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3526585862672309E-2"/>
+          <c:y val="2.3159476510503853E-2"/>
+          <c:w val="0.77077846208290623"/>
+          <c:h val="0.83443325384851119"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>First</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-793E-472F-803E-0C3A8705152E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-793E-472F-803E-0C3A8705152E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$BA$251:$BA$288</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$BB$251:$BB$288</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-793E-472F-803E-0C3A8705152E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-793E-472F-803E-0C3A8705152E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$AX$251:$AX$278</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$AY$251:$AY$278</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-793E-472F-803E-0C3A8705152E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675044480"/>
+        <c:axId val="673318600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675044480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo de CPU (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673318600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673318600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Coste (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675044480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3526585862672309E-2"/>
+          <c:y val="2.3159476510503853E-2"/>
+          <c:w val="0.77077846208290623"/>
+          <c:h val="0.83443325384851119"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ILS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="85"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5060-408B-947B-491F6B0CBD6C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$BP$278:$BP$363</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>101.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>127.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137.57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>146.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>153.54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>157.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>160.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>163.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>166.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>167.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170.45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>173.67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>176.89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>179.71</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>179.85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>186.69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>189.78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>189.91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>193.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>197.03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200.11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>204.01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>207.09</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>210.58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>213.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>217.03</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>220.11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>220.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>223.74</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>226.82</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>229.78</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>229.91</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>233.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>236.49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>239.31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>239.44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>242.79</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>245.61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>248.57</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>248.83</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>252.06</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>254.87</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>258.23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>258.36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>261.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>264.81</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>268.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>271.11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>271.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>275.14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>278.23</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>281.45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>284.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>284.67</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>288.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>291.38</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>294.74</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>297.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>298.23</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>301.31</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>304.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>307.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>307.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>310.98</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>313.93</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>317.14999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$BQ$278:$BQ$363</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5060-408B-947B-491F6B0CBD6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0338126783907779E-2"/>
+                  <c:y val="-3.0749350251356049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5060-408B-947B-491F6B0CBD6C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$AX$251:$AX$278</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$AY$251:$AY$278</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5060-408B-947B-491F6B0CBD6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675044480"/>
+        <c:axId val="673318600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675044480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo de CPU (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673318600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673318600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Coste (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675044480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7800,6 +10050,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10959,6 +13289,1046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11182,6 +14552,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>214511</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE49A00-9545-4690-BF6F-E62B81C99C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>405012</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4844414-9506-46DB-9DC5-E4794D20A1F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11453,10 +14899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK363"/>
+  <dimension ref="A1:BQ363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y353" sqref="Y353:AH363"/>
+    <sheetView tabSelected="1" topLeftCell="BO250" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BY269" sqref="BY269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17418,12 +20864,12 @@
         <v>14.660625</v>
       </c>
     </row>
-    <row r="242" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="243" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>74</v>
       </c>
@@ -17460,7 +20906,7 @@
         <v>4.4487777777777779</v>
       </c>
     </row>
-    <row r="244" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>75</v>
       </c>
@@ -17501,12 +20947,12 @@
         <v>24.445749999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>78</v>
       </c>
@@ -17531,8 +20977,17 @@
       <c r="AJ249" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="250" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX249" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA249" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP249" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -17581,8 +21036,26 @@
       <c r="AK250" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="251" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX250" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY250" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA250" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB250" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP250" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ250" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0.4</v>
       </c>
@@ -17631,8 +21104,26 @@
       <c r="AK251">
         <v>28.97</v>
       </c>
-    </row>
-    <row r="252" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX251">
+        <v>0.4</v>
+      </c>
+      <c r="AY251">
+        <v>28.97</v>
+      </c>
+      <c r="BA251">
+        <v>0.4</v>
+      </c>
+      <c r="BB251">
+        <v>28.97</v>
+      </c>
+      <c r="BP251">
+        <v>0.4</v>
+      </c>
+      <c r="BQ251">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="252" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5.0999999999999996</v>
       </c>
@@ -17681,8 +21172,26 @@
       <c r="AK252">
         <v>27.52</v>
       </c>
-    </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX252">
+        <v>6.44</v>
+      </c>
+      <c r="AY252">
+        <v>26.21</v>
+      </c>
+      <c r="BA252">
+        <v>0.67</v>
+      </c>
+      <c r="BB252">
+        <v>26.21</v>
+      </c>
+      <c r="BP252">
+        <v>6.44</v>
+      </c>
+      <c r="BQ252">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="253" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9.7899999999999991</v>
       </c>
@@ -17731,8 +21240,26 @@
       <c r="AK253">
         <v>26.21</v>
       </c>
-    </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX253">
+        <v>11.94</v>
+      </c>
+      <c r="AY253">
+        <v>23.94</v>
+      </c>
+      <c r="BA253">
+        <v>0.93</v>
+      </c>
+      <c r="BB253">
+        <v>23.94</v>
+      </c>
+      <c r="BP253">
+        <v>11.94</v>
+      </c>
+      <c r="BQ253">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="254" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>14.09</v>
       </c>
@@ -17781,8 +21308,26 @@
       <c r="AK254">
         <v>25.03</v>
       </c>
-    </row>
-    <row r="255" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX254">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AY254">
+        <v>21.99</v>
+      </c>
+      <c r="BA254">
+        <v>1.2</v>
+      </c>
+      <c r="BB254">
+        <v>22</v>
+      </c>
+      <c r="BP254">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="BQ254">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="255" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>18.25</v>
       </c>
@@ -17831,8 +21376,26 @@
       <c r="AK255">
         <v>23.94</v>
       </c>
-    </row>
-    <row r="256" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX255">
+        <v>20.53</v>
+      </c>
+      <c r="AY255">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="BA255">
+        <v>1.47</v>
+      </c>
+      <c r="BB255">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="BP255">
+        <v>20.66</v>
+      </c>
+      <c r="BQ255">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>22.01</v>
       </c>
@@ -17881,8 +21444,26 @@
       <c r="AK256">
         <v>22.93</v>
       </c>
-    </row>
-    <row r="257" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX256">
+        <v>24.02</v>
+      </c>
+      <c r="AY256">
+        <v>18.91</v>
+      </c>
+      <c r="BA256">
+        <v>1.61</v>
+      </c>
+      <c r="BB256">
+        <v>18.91</v>
+      </c>
+      <c r="BP256">
+        <v>24.02</v>
+      </c>
+      <c r="BQ256">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="257" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>25.63</v>
       </c>
@@ -17931,8 +21512,26 @@
       <c r="AK257">
         <v>22</v>
       </c>
-    </row>
-    <row r="258" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX257">
+        <v>27.91</v>
+      </c>
+      <c r="AY257">
+        <v>18.8</v>
+      </c>
+      <c r="BA257">
+        <v>1.87</v>
+      </c>
+      <c r="BB257">
+        <v>18.82</v>
+      </c>
+      <c r="BP257">
+        <v>28.05</v>
+      </c>
+      <c r="BQ257">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>28.99</v>
       </c>
@@ -17981,8 +21580,26 @@
       <c r="AK258">
         <v>21.14</v>
       </c>
-    </row>
-    <row r="259" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX258">
+        <v>31.27</v>
+      </c>
+      <c r="AY258">
+        <v>18.68</v>
+      </c>
+      <c r="BA258">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BB258">
+        <v>18.73</v>
+      </c>
+      <c r="BP258">
+        <v>31.4</v>
+      </c>
+      <c r="BQ258">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="259" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>32.479999999999997</v>
       </c>
@@ -18031,8 +21648,26 @@
       <c r="AK259">
         <v>20.350000000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX259">
+        <v>35.43</v>
+      </c>
+      <c r="AY259">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="BA259">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="BB259">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="BP259">
+        <v>35.56</v>
+      </c>
+      <c r="BQ259">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>35.43</v>
       </c>
@@ -18081,8 +21716,26 @@
       <c r="AK260">
         <v>19.59</v>
       </c>
-    </row>
-    <row r="261" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX260">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="AY260">
+        <v>18.45</v>
+      </c>
+      <c r="BA260">
+        <v>2.41</v>
+      </c>
+      <c r="BB260">
+        <v>18.57</v>
+      </c>
+      <c r="BP260">
+        <v>39.19</v>
+      </c>
+      <c r="BQ260">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="261" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>38.11</v>
       </c>
@@ -18131,8 +21784,26 @@
       <c r="AK261">
         <v>18.91</v>
       </c>
-    </row>
-    <row r="262" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX261">
+        <v>42.14</v>
+      </c>
+      <c r="AY261">
+        <v>18.32</v>
+      </c>
+      <c r="BA261">
+        <v>2.68</v>
+      </c>
+      <c r="BB261">
+        <v>18.48</v>
+      </c>
+      <c r="BP261">
+        <v>42.41</v>
+      </c>
+      <c r="BQ261">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>41.07</v>
       </c>
@@ -18181,8 +21852,26 @@
       <c r="AK262">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="263" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX262">
+        <v>45.76</v>
+      </c>
+      <c r="AY262">
+        <v>18.21</v>
+      </c>
+      <c r="BA262">
+        <v>2.81</v>
+      </c>
+      <c r="BB262">
+        <v>18.39</v>
+      </c>
+      <c r="BP262">
+        <v>46.17</v>
+      </c>
+      <c r="BQ262">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>44.02</v>
       </c>
@@ -18231,8 +21920,26 @@
       <c r="AK263">
         <v>18.21</v>
       </c>
-    </row>
-    <row r="264" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX263">
+        <v>48.85</v>
+      </c>
+      <c r="AY263">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="BA263">
+        <v>3.08</v>
+      </c>
+      <c r="BB263">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="BP263">
+        <v>49.39</v>
+      </c>
+      <c r="BQ263">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>46.7</v>
       </c>
@@ -18281,8 +21988,26 @@
       <c r="AK264">
         <v>18.18</v>
       </c>
-    </row>
-    <row r="265" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX264">
+        <v>52.47</v>
+      </c>
+      <c r="AY264">
+        <v>17.98</v>
+      </c>
+      <c r="BA264">
+        <v>3.22</v>
+      </c>
+      <c r="BB264">
+        <v>18.22</v>
+      </c>
+      <c r="BP264">
+        <v>52.88</v>
+      </c>
+      <c r="BQ264">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="265" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>49.12</v>
       </c>
@@ -18331,8 +22056,26 @@
       <c r="AK265">
         <v>18.14</v>
       </c>
-    </row>
-    <row r="266" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX265">
+        <v>55.96</v>
+      </c>
+      <c r="AY265">
+        <v>17.87</v>
+      </c>
+      <c r="BA265">
+        <v>3.35</v>
+      </c>
+      <c r="BB265">
+        <v>18.12</v>
+      </c>
+      <c r="BP265">
+        <v>56.5</v>
+      </c>
+      <c r="BQ265">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>51.53</v>
       </c>
@@ -18375,8 +22118,26 @@
       <c r="AK266">
         <v>18.09</v>
       </c>
-    </row>
-    <row r="267" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX266">
+        <v>59.19</v>
+      </c>
+      <c r="AY266">
+        <v>17.77</v>
+      </c>
+      <c r="BA266">
+        <v>3.62</v>
+      </c>
+      <c r="BB266">
+        <v>18.03</v>
+      </c>
+      <c r="BP266">
+        <v>59.72</v>
+      </c>
+      <c r="BQ266">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="267" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>54.08</v>
       </c>
@@ -18419,8 +22180,26 @@
       <c r="AK267">
         <v>18.05</v>
       </c>
-    </row>
-    <row r="268" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX267">
+        <v>62.81</v>
+      </c>
+      <c r="AY267">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="BA267">
+        <v>3.75</v>
+      </c>
+      <c r="BB267">
+        <v>17.95</v>
+      </c>
+      <c r="BP267">
+        <v>63.48</v>
+      </c>
+      <c r="BQ267">
+        <v>17.690000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>56.23</v>
       </c>
@@ -18463,8 +22242,26 @@
       <c r="AK268">
         <v>18.010000000000002</v>
       </c>
-    </row>
-    <row r="269" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX268">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="AY268">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BA268">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="BB268">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="BP268">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="BQ268">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>58.25</v>
       </c>
@@ -18507,8 +22304,26 @@
       <c r="AK269">
         <v>17.97</v>
       </c>
-    </row>
-    <row r="270" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX269">
+        <v>68.98</v>
+      </c>
+      <c r="AY269">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="BA269">
+        <v>4.16</v>
+      </c>
+      <c r="BB269">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="BP269">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="BQ269">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>60.53</v>
       </c>
@@ -18551,8 +22366,26 @@
       <c r="AK270">
         <v>17.920000000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX270">
+        <v>72.47</v>
+      </c>
+      <c r="AY270">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="BA270">
+        <v>4.42</v>
+      </c>
+      <c r="BB270">
+        <v>17.8</v>
+      </c>
+      <c r="BP270">
+        <v>73.28</v>
+      </c>
+      <c r="BQ270">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>62.67</v>
       </c>
@@ -18589,8 +22422,26 @@
       <c r="AK271">
         <v>17.88</v>
       </c>
-    </row>
-    <row r="272" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX271">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AY271">
+        <v>17.47</v>
+      </c>
+      <c r="BA271">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="BB271">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="BP271">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="BQ271">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="272" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>64.69</v>
       </c>
@@ -18621,8 +22472,26 @@
       <c r="AK272">
         <v>17.84</v>
       </c>
-    </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX272">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="AY272">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="BA272">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="BB272">
+        <v>17.72</v>
+      </c>
+      <c r="BP272">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="BQ272">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>66.569999999999993</v>
       </c>
@@ -18653,8 +22522,26 @@
       <c r="AK273">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX273">
+        <v>82.4</v>
+      </c>
+      <c r="AY273">
+        <v>17.37</v>
+      </c>
+      <c r="BA273">
+        <v>4.96</v>
+      </c>
+      <c r="BB273">
+        <v>17.68</v>
+      </c>
+      <c r="BP273">
+        <v>83.21</v>
+      </c>
+      <c r="BQ273">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>68.849999999999994</v>
       </c>
@@ -18685,8 +22572,26 @@
       <c r="AK274">
         <v>17.77</v>
       </c>
-    </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX274">
+        <v>85.76</v>
+      </c>
+      <c r="AY274">
+        <v>17.32</v>
+      </c>
+      <c r="BA274">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BB274">
+        <v>17.63</v>
+      </c>
+      <c r="BP274">
+        <v>87.1</v>
+      </c>
+      <c r="BQ274">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>71</v>
       </c>
@@ -18717,8 +22622,26 @@
       <c r="AK275">
         <v>17.72</v>
       </c>
-    </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX275">
+        <v>89.12</v>
+      </c>
+      <c r="AY275">
+        <v>17.28</v>
+      </c>
+      <c r="BA275">
+        <v>5.23</v>
+      </c>
+      <c r="BB275">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="BP275">
+        <v>90.59</v>
+      </c>
+      <c r="BQ275">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="276" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>73.010000000000005</v>
       </c>
@@ -18749,8 +22672,26 @@
       <c r="AK276">
         <v>17.68</v>
       </c>
-    </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX276">
+        <v>92.61</v>
+      </c>
+      <c r="AY276">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="BA276">
+        <v>5.5</v>
+      </c>
+      <c r="BB276">
+        <v>17.54</v>
+      </c>
+      <c r="BP276">
+        <v>94.08</v>
+      </c>
+      <c r="BQ276">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>75.02</v>
       </c>
@@ -18781,8 +22722,26 @@
       <c r="AK277">
         <v>17.63</v>
       </c>
-    </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX277">
+        <v>96.09</v>
+      </c>
+      <c r="AY277">
+        <v>17.18</v>
+      </c>
+      <c r="BA277">
+        <v>5.63</v>
+      </c>
+      <c r="BB277">
+        <v>17.48</v>
+      </c>
+      <c r="BP277">
+        <v>97.57</v>
+      </c>
+      <c r="BQ277">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>77.17</v>
       </c>
@@ -18813,8 +22772,26 @@
       <c r="AK278">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AX278">
+        <v>99.45</v>
+      </c>
+      <c r="AY278">
+        <v>17.18</v>
+      </c>
+      <c r="BA278">
+        <v>6.44</v>
+      </c>
+      <c r="BB278">
+        <v>17.46</v>
+      </c>
+      <c r="BP278">
+        <v>101.06</v>
+      </c>
+      <c r="BQ278">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>79.319999999999993</v>
       </c>
@@ -18845,8 +22822,20 @@
       <c r="AK279">
         <v>17.54</v>
       </c>
-    </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BA279">
+        <v>7.11</v>
+      </c>
+      <c r="BB279">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="BP279">
+        <v>105.09</v>
+      </c>
+      <c r="BQ279">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>81.47</v>
       </c>
@@ -18877,8 +22866,20 @@
       <c r="AK280">
         <v>17.510000000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BA280">
+        <v>7.91</v>
+      </c>
+      <c r="BB280">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BP280">
+        <v>108.17</v>
+      </c>
+      <c r="BQ280">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>83.34</v>
       </c>
@@ -18909,8 +22910,20 @@
       <c r="AK281">
         <v>17.46</v>
       </c>
-    </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BA281">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="BB281">
+        <v>17.37</v>
+      </c>
+      <c r="BP281">
+        <v>111.53</v>
+      </c>
+      <c r="BQ281">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="282" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>85.63</v>
       </c>
@@ -18941,8 +22954,20 @@
       <c r="AK282">
         <v>17.41</v>
       </c>
-    </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BA282">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="BB282">
+        <v>17.34</v>
+      </c>
+      <c r="BP282">
+        <v>111.66</v>
+      </c>
+      <c r="BQ282">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="283" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>87.77</v>
       </c>
@@ -18973,8 +22998,20 @@
       <c r="AK283">
         <v>17.39</v>
       </c>
-    </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BA283">
+        <v>9.93</v>
+      </c>
+      <c r="BB283">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="BP283">
+        <v>114.89</v>
+      </c>
+      <c r="BQ283">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="284" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>89.79</v>
       </c>
@@ -19005,8 +23042,20 @@
       <c r="AK284">
         <v>17.37</v>
       </c>
-    </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BA284">
+        <v>10.6</v>
+      </c>
+      <c r="BB284">
+        <v>17.28</v>
+      </c>
+      <c r="BP284">
+        <v>118.11</v>
+      </c>
+      <c r="BQ284">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>91.67</v>
       </c>
@@ -19037,8 +23086,14 @@
       <c r="AK285">
         <v>17.34</v>
       </c>
-    </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP285">
+        <v>121.19</v>
+      </c>
+      <c r="BQ285">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>93.81</v>
       </c>
@@ -19069,8 +23124,14 @@
       <c r="AK286">
         <v>17.329999999999998</v>
       </c>
-    </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP286">
+        <v>124.15</v>
+      </c>
+      <c r="BQ286">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>95.83</v>
       </c>
@@ -19101,8 +23162,14 @@
       <c r="AK287">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP287">
+        <v>124.41</v>
+      </c>
+      <c r="BQ287">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>97.71</v>
       </c>
@@ -19133,8 +23200,14 @@
       <c r="AK288">
         <v>17.27</v>
       </c>
-    </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP288">
+        <v>127.9</v>
+      </c>
+      <c r="BQ288">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>99.85</v>
       </c>
@@ -19165,8 +23238,14 @@
       <c r="AK289">
         <v>17.260000000000002</v>
       </c>
-    </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP289">
+        <v>130.99</v>
+      </c>
+      <c r="BQ289">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>101.87</v>
       </c>
@@ -19197,8 +23276,14 @@
       <c r="AK290">
         <v>17.23</v>
       </c>
-    </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP290">
+        <v>133.94</v>
+      </c>
+      <c r="BQ290">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>103.75</v>
       </c>
@@ -19229,8 +23314,14 @@
       <c r="AK291">
         <v>17.22</v>
       </c>
-    </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP291">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="BQ291">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>105.89</v>
       </c>
@@ -19261,8 +23352,14 @@
       <c r="AK292">
         <v>17.190000000000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP292">
+        <v>137.57</v>
+      </c>
+      <c r="BQ292">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>107.91</v>
       </c>
@@ -19293,8 +23390,14 @@
       <c r="AK293">
         <v>17.18</v>
       </c>
-    </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP293">
+        <v>140.79</v>
+      </c>
+      <c r="BQ293">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>110.05</v>
       </c>
@@ -19325,8 +23428,14 @@
       <c r="AK294">
         <v>17.149999999999999</v>
       </c>
-    </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP294">
+        <v>144.13999999999999</v>
+      </c>
+      <c r="BQ294">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>112.07</v>
       </c>
@@ -19357,8 +23466,14 @@
       <c r="AK295">
         <v>17.12</v>
       </c>
-    </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP295">
+        <v>146.83000000000001</v>
+      </c>
+      <c r="BQ295">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>114.21</v>
       </c>
@@ -19389,8 +23504,14 @@
       <c r="AK296">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP296">
+        <v>147.1</v>
+      </c>
+      <c r="BQ296">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>116.23</v>
       </c>
@@ -19421,8 +23542,14 @@
       <c r="AK297">
         <v>17.079999999999998</v>
       </c>
-    </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP297">
+        <v>150.9</v>
+      </c>
+      <c r="BQ297">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:69" x14ac:dyDescent="0.25">
       <c r="Q298">
         <v>166.16</v>
       </c>
@@ -19447,8 +23574,14 @@
       <c r="AK298">
         <v>17.059999999999999</v>
       </c>
-    </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP298">
+        <v>153.54</v>
+      </c>
+      <c r="BQ298">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:69" x14ac:dyDescent="0.25">
       <c r="Q299">
         <v>169.24</v>
       </c>
@@ -19473,8 +23606,14 @@
       <c r="AK299">
         <v>17.03</v>
       </c>
-    </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP299">
+        <v>156.76</v>
+      </c>
+      <c r="BQ299">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:69" x14ac:dyDescent="0.25">
       <c r="Q300">
         <v>172.2</v>
       </c>
@@ -19499,8 +23638,14 @@
       <c r="AK300">
         <v>17</v>
       </c>
-    </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP300">
+        <v>157.03</v>
+      </c>
+      <c r="BQ300">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:69" x14ac:dyDescent="0.25">
       <c r="Q301">
         <v>175.55</v>
       </c>
@@ -19525,8 +23670,14 @@
       <c r="AK301">
         <v>16.989999999999998</v>
       </c>
-    </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP301">
+        <v>160.38999999999999</v>
+      </c>
+      <c r="BQ301">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:69" x14ac:dyDescent="0.25">
       <c r="Q302">
         <v>178.77</v>
       </c>
@@ -19551,8 +23702,14 @@
       <c r="AK302">
         <v>16.989999999999998</v>
       </c>
-    </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP302">
+        <v>163.74</v>
+      </c>
+      <c r="BQ302">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AG303">
         <v>184.95</v>
       </c>
@@ -19565,8 +23722,14 @@
       <c r="AK303">
         <v>17.170000000000002</v>
       </c>
-    </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="BP303">
+        <v>166.96</v>
+      </c>
+      <c r="BQ303">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AG304">
         <v>187.98</v>
       </c>
@@ -19579,8 +23742,14 @@
       <c r="AK304">
         <v>17.14</v>
       </c>
-    </row>
-    <row r="305" spans="12:37" x14ac:dyDescent="0.25">
+      <c r="BP304">
+        <v>167.23</v>
+      </c>
+      <c r="BQ304">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="12:69" x14ac:dyDescent="0.25">
       <c r="AG305">
         <v>191.4</v>
       </c>
@@ -19593,8 +23762,30 @@
       <c r="AK305">
         <v>17.14</v>
       </c>
-    </row>
-    <row r="308" spans="12:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP305">
+        <v>170.45</v>
+      </c>
+      <c r="BQ305">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP306">
+        <v>173.67</v>
+      </c>
+      <c r="BQ306">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP307">
+        <v>176.89</v>
+      </c>
+      <c r="BQ307">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="12:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L308" s="1"/>
       <c r="M308" s="4" t="s">
         <v>81</v>
@@ -19657,8 +23848,14 @@
       <c r="AJ308" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="309" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP308">
+        <v>179.71</v>
+      </c>
+      <c r="BQ308">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L309" s="2">
         <v>1</v>
       </c>
@@ -19725,8 +23922,14 @@
       <c r="AJ309" s="8">
         <v>33.869999999999997</v>
       </c>
-    </row>
-    <row r="310" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP309">
+        <v>179.85</v>
+      </c>
+      <c r="BQ309">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L310" s="3">
         <v>2</v>
       </c>
@@ -19793,8 +23996,14 @@
       <c r="AJ310" s="8">
         <v>23.72</v>
       </c>
-    </row>
-    <row r="311" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP310">
+        <v>183.6</v>
+      </c>
+      <c r="BQ310">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L311" s="2">
         <v>3</v>
       </c>
@@ -19861,8 +24070,14 @@
       <c r="AJ311" s="8">
         <v>26.13</v>
       </c>
-    </row>
-    <row r="312" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP311">
+        <v>186.69</v>
+      </c>
+      <c r="BQ311">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L312" s="3">
         <v>4</v>
       </c>
@@ -19929,8 +24144,14 @@
       <c r="AJ312" s="8">
         <v>28.53</v>
       </c>
-    </row>
-    <row r="313" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP312">
+        <v>189.78</v>
+      </c>
+      <c r="BQ312">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L313" s="2">
         <v>5</v>
       </c>
@@ -19997,8 +24218,14 @@
       <c r="AJ313" s="8">
         <v>23.17</v>
       </c>
-    </row>
-    <row r="314" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP313">
+        <v>189.91</v>
+      </c>
+      <c r="BQ313">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L314" s="3">
         <v>6</v>
       </c>
@@ -20065,8 +24292,14 @@
       <c r="AJ314" s="8">
         <v>20.440000000000001</v>
       </c>
-    </row>
-    <row r="315" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP314">
+        <v>193.54</v>
+      </c>
+      <c r="BQ314">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L315" s="2">
         <v>7</v>
       </c>
@@ -20133,8 +24366,14 @@
       <c r="AJ315" s="8">
         <v>41.56</v>
       </c>
-    </row>
-    <row r="316" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP315">
+        <v>197.03</v>
+      </c>
+      <c r="BQ315">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L316" s="3">
         <v>8</v>
       </c>
@@ -20201,8 +24440,14 @@
       <c r="AJ316" s="8">
         <v>30.63</v>
       </c>
-    </row>
-    <row r="317" spans="12:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP316">
+        <v>200.11</v>
+      </c>
+      <c r="BQ316">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L317" s="2">
         <v>9</v>
       </c>
@@ -20269,8 +24514,14 @@
       <c r="AJ317" s="8">
         <v>21.65</v>
       </c>
-    </row>
-    <row r="318" spans="12:37" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="BP317">
+        <v>200.25</v>
+      </c>
+      <c r="BQ317">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="12:69" ht="16.5" x14ac:dyDescent="0.25">
       <c r="L318" s="3">
         <v>10</v>
       </c>
@@ -20301,8 +24552,14 @@
       <c r="U318" s="6">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="319" spans="12:37" x14ac:dyDescent="0.25">
+      <c r="BP318">
+        <v>204.01</v>
+      </c>
+      <c r="BQ318">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="12:69" x14ac:dyDescent="0.25">
       <c r="L319" s="7" t="s">
         <v>90</v>
       </c>
@@ -20333,8 +24590,46 @@
       <c r="U319" s="8">
         <v>21.65</v>
       </c>
-    </row>
-    <row r="324" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP319">
+        <v>207.09</v>
+      </c>
+      <c r="BQ319">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP320">
+        <v>210.45</v>
+      </c>
+      <c r="BQ320">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP321">
+        <v>210.58</v>
+      </c>
+      <c r="BQ321">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP322">
+        <v>213.8</v>
+      </c>
+      <c r="BQ322">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP323">
+        <v>217.03</v>
+      </c>
+      <c r="BQ323">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L324" s="1"/>
       <c r="M324" s="4" t="s">
         <v>81</v>
@@ -20394,8 +24689,14 @@
       <c r="AH324" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="325" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP324">
+        <v>220.11</v>
+      </c>
+      <c r="BQ324">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L325" s="10" t="s">
         <v>91</v>
       </c>
@@ -20459,8 +24760,14 @@
       <c r="AH325" s="8">
         <v>16.989999999999998</v>
       </c>
-    </row>
-    <row r="326" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP325">
+        <v>220.25</v>
+      </c>
+      <c r="BQ325">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L326" s="11" t="s">
         <v>92</v>
       </c>
@@ -20524,8 +24831,14 @@
       <c r="AH326" s="8">
         <v>13.79</v>
       </c>
-    </row>
-    <row r="327" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP326">
+        <v>223.74</v>
+      </c>
+      <c r="BQ326">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L327" s="10" t="s">
         <v>93</v>
       </c>
@@ -20589,8 +24902,14 @@
       <c r="AH327" s="8">
         <v>11.46</v>
       </c>
-    </row>
-    <row r="328" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP327">
+        <v>226.82</v>
+      </c>
+      <c r="BQ327">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L328" s="11" t="s">
         <v>94</v>
       </c>
@@ -20654,8 +24973,14 @@
       <c r="AH328" s="8">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="329" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP328">
+        <v>229.78</v>
+      </c>
+      <c r="BQ328">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L329" s="10" t="s">
         <v>95</v>
       </c>
@@ -20719,8 +25044,14 @@
       <c r="AH329" s="8">
         <v>14.42</v>
       </c>
-    </row>
-    <row r="330" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP329">
+        <v>229.91</v>
+      </c>
+      <c r="BQ329">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L330" s="11" t="s">
         <v>96</v>
       </c>
@@ -20784,8 +25115,14 @@
       <c r="AH330" s="8">
         <v>12.66</v>
       </c>
-    </row>
-    <row r="331" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP330">
+        <v>233.53</v>
+      </c>
+      <c r="BQ330">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L331" s="10" t="s">
         <v>97</v>
       </c>
@@ -20849,8 +25186,14 @@
       <c r="AH331" s="8">
         <v>21.56</v>
       </c>
-    </row>
-    <row r="332" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP331">
+        <v>236.49</v>
+      </c>
+      <c r="BQ331">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L332" s="11" t="s">
         <v>98</v>
       </c>
@@ -20914,8 +25257,14 @@
       <c r="AH332" s="8">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="333" spans="12:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP332">
+        <v>239.31</v>
+      </c>
+      <c r="BQ332">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L333" s="7" t="s">
         <v>90</v>
       </c>
@@ -20977,8 +25326,14 @@
       <c r="AH333" s="8">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="334" spans="12:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP333">
+        <v>239.44</v>
+      </c>
+      <c r="BQ333">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="12:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Y334" s="9" t="s">
         <v>90</v>
       </c>
@@ -21007,8 +25362,38 @@
         <v>16.07</v>
       </c>
       <c r="AH334" s="12"/>
-    </row>
-    <row r="338" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP334">
+        <v>242.79</v>
+      </c>
+      <c r="BQ334">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP335">
+        <v>245.61</v>
+      </c>
+      <c r="BQ335">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="336" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP336">
+        <v>248.57</v>
+      </c>
+      <c r="BQ336">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="337" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP337">
+        <v>248.83</v>
+      </c>
+      <c r="BQ337">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="338" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L338" s="1"/>
       <c r="M338" s="4" t="s">
         <v>81</v>
@@ -21068,8 +25453,14 @@
       <c r="AH338" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="339" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP338">
+        <v>252.06</v>
+      </c>
+      <c r="BQ338">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="339" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L339" s="10" t="s">
         <v>91</v>
       </c>
@@ -21133,8 +25524,14 @@
       <c r="AH339" s="8">
         <v>107.02</v>
       </c>
-    </row>
-    <row r="340" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP339">
+        <v>254.87</v>
+      </c>
+      <c r="BQ339">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="340" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L340" s="11" t="s">
         <v>92</v>
       </c>
@@ -21198,8 +25595,14 @@
       <c r="AH340" s="8">
         <v>66.55</v>
       </c>
-    </row>
-    <row r="341" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP340">
+        <v>258.23</v>
+      </c>
+      <c r="BQ340">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="341" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L341" s="10" t="s">
         <v>93</v>
       </c>
@@ -21263,8 +25666,14 @@
       <c r="AH341" s="8">
         <v>55.52</v>
       </c>
-    </row>
-    <row r="342" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP341">
+        <v>258.36</v>
+      </c>
+      <c r="BQ341">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="342" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L342" s="11" t="s">
         <v>94</v>
       </c>
@@ -21328,8 +25737,14 @@
       <c r="AH342" s="8">
         <v>35.32</v>
       </c>
-    </row>
-    <row r="343" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP342">
+        <v>261.85000000000002</v>
+      </c>
+      <c r="BQ342">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="343" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L343" s="10" t="s">
         <v>95</v>
       </c>
@@ -21393,8 +25808,14 @@
       <c r="AH343" s="8">
         <v>25.84</v>
       </c>
-    </row>
-    <row r="344" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP343">
+        <v>264.81</v>
+      </c>
+      <c r="BQ343">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="344" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L344" s="11" t="s">
         <v>96</v>
       </c>
@@ -21458,8 +25879,14 @@
       <c r="AH344" s="8">
         <v>23.59</v>
       </c>
-    </row>
-    <row r="345" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP344">
+        <v>268.16000000000003</v>
+      </c>
+      <c r="BQ344">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="345" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L345" s="10" t="s">
         <v>97</v>
       </c>
@@ -21523,8 +25950,14 @@
       <c r="AH345" s="8">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="346" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP345">
+        <v>271.11</v>
+      </c>
+      <c r="BQ345">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="346" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L346" s="11" t="s">
         <v>99</v>
       </c>
@@ -21588,8 +26021,14 @@
       <c r="AH346" s="8">
         <v>30.84</v>
       </c>
-    </row>
-    <row r="347" spans="12:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP346">
+        <v>271.25</v>
+      </c>
+      <c r="BQ346">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="347" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L347" s="7" t="s">
         <v>90</v>
       </c>
@@ -21651,8 +26090,14 @@
       <c r="AH347" s="8">
         <v>24.44</v>
       </c>
-    </row>
-    <row r="348" spans="12:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP347">
+        <v>275.14</v>
+      </c>
+      <c r="BQ347">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="348" spans="12:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Y348" s="9" t="s">
         <v>90</v>
       </c>
@@ -21681,8 +26126,46 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="AH348" s="12"/>
-    </row>
-    <row r="353" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP348">
+        <v>278.23</v>
+      </c>
+      <c r="BQ348">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="349" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP349">
+        <v>281.45</v>
+      </c>
+      <c r="BQ349">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="350" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP350">
+        <v>284.54000000000002</v>
+      </c>
+      <c r="BQ350">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="351" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP351">
+        <v>284.67</v>
+      </c>
+      <c r="BQ351">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="352" spans="12:69" x14ac:dyDescent="0.25">
+      <c r="BP352">
+        <v>288.29000000000002</v>
+      </c>
+      <c r="BQ352">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="353" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L353" s="1"/>
       <c r="M353" s="4" t="s">
         <v>81</v>
@@ -21742,8 +26225,14 @@
       <c r="AH353" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="354" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP353">
+        <v>291.38</v>
+      </c>
+      <c r="BQ353">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="354" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L354" s="10" t="s">
         <v>91</v>
       </c>
@@ -21807,8 +26296,14 @@
       <c r="AH354" s="14">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="355" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP354">
+        <v>294.74</v>
+      </c>
+      <c r="BQ354">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="355" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L355" s="11" t="s">
         <v>92</v>
       </c>
@@ -21872,8 +26367,14 @@
       <c r="AH355" s="14">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="356" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP355">
+        <v>297.95999999999998</v>
+      </c>
+      <c r="BQ355">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="356" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L356" s="10" t="s">
         <v>93</v>
       </c>
@@ -21937,8 +26438,14 @@
       <c r="AH356" s="14">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="357" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP356">
+        <v>298.23</v>
+      </c>
+      <c r="BQ356">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="357" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L357" s="11" t="s">
         <v>94</v>
       </c>
@@ -22002,8 +26509,14 @@
       <c r="AH357" s="14">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="358" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP357">
+        <v>301.31</v>
+      </c>
+      <c r="BQ357">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="358" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L358" s="10" t="s">
         <v>95</v>
       </c>
@@ -22067,8 +26580,14 @@
       <c r="AH358" s="14">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="359" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP358">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="BQ358">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="359" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L359" s="11" t="s">
         <v>96</v>
       </c>
@@ -22132,8 +26651,14 @@
       <c r="AH359" s="14">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="360" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP359">
+        <v>307.22000000000003</v>
+      </c>
+      <c r="BQ359">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="360" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L360" s="10" t="s">
         <v>97</v>
       </c>
@@ -22197,8 +26722,14 @@
       <c r="AH360" s="14">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="361" spans="12:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP360">
+        <v>307.35000000000002</v>
+      </c>
+      <c r="BQ360">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="361" spans="12:69" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L361" s="11" t="s">
         <v>98</v>
       </c>
@@ -22262,8 +26793,14 @@
       <c r="AH361" s="14">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="362" spans="12:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP361">
+        <v>310.98</v>
+      </c>
+      <c r="BQ361">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="362" spans="12:69" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L362" s="7" t="s">
         <v>90</v>
       </c>
@@ -22325,8 +26862,14 @@
       <c r="AH362" s="14">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="363" spans="12:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BP362">
+        <v>313.93</v>
+      </c>
+      <c r="BQ362">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="363" spans="12:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Y363" s="9" t="s">
         <v>90</v>
       </c>
@@ -22355,6 +26898,12 @@
         <v>0.74</v>
       </c>
       <c r="AH363" s="12"/>
+      <c r="BP363">
+        <v>317.14999999999998</v>
+      </c>
+      <c r="BQ363">
+        <v>16.13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calculos.xlsx
+++ b/Calculos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40CDFA1-78D2-4770-9E58-449C95FFBB5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B1C053-18A3-4D12-988E-A73B35799421}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7636,7 +7636,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>First</c:v>
+            <c:v>LS8</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -7968,7 +7968,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Best</c:v>
+            <c:v>LS4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -8608,7 +8608,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ILS</c:v>
+            <c:v>ILS4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -9237,7 +9237,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Best</c:v>
+            <c:v>LS4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -14901,8 +14901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO250" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BY269" sqref="BY269"/>
+    <sheetView tabSelected="1" topLeftCell="BL247" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="CC260" sqref="CC260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
